--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp3-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Bmp3</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Bmp3</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,13 +543,13 @@
         <v>0.1963633333333333</v>
       </c>
       <c r="H2">
-        <v>0.5890899999999999</v>
+        <v>0.58909</v>
       </c>
       <c r="I2">
-        <v>0.4036350381167855</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5037807716844915</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.021791</v>
+        <v>0.8092246666666667</v>
       </c>
       <c r="N2">
-        <v>6.065372999999999</v>
+        <v>2.427674</v>
       </c>
       <c r="O2">
-        <v>0.3781620571349336</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="P2">
-        <v>0.426545054769166</v>
+        <v>0.2486288754648592</v>
       </c>
       <c r="Q2">
-        <v>0.3970056200633332</v>
+        <v>0.1589020529622222</v>
       </c>
       <c r="R2">
-        <v>3.573050580569999</v>
+        <v>1.43011847666</v>
       </c>
       <c r="S2">
-        <v>0.1526394563459809</v>
+        <v>0.2312345204823145</v>
       </c>
       <c r="T2">
-        <v>0.2148851968498142</v>
+        <v>0.2486288754648592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,13 +605,13 @@
         <v>0.1963633333333333</v>
       </c>
       <c r="H3">
-        <v>0.5890899999999999</v>
+        <v>0.58909</v>
       </c>
       <c r="I3">
-        <v>0.4036350381167855</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5037807716844915</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.803997</v>
       </c>
       <c r="O3">
-        <v>0.05012736388187754</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="P3">
-        <v>0.05654078395495961</v>
+        <v>0.08234090326259635</v>
       </c>
       <c r="Q3">
-        <v>0.05262517696999999</v>
+        <v>0.05262517697</v>
       </c>
       <c r="R3">
-        <v>0.4736265927299999</v>
+        <v>0.47362659273</v>
       </c>
       <c r="S3">
-        <v>0.02023316043115562</v>
+        <v>0.0765802413191472</v>
       </c>
       <c r="T3">
-        <v>0.02848415977247567</v>
+        <v>0.08234090326259635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,13 +667,13 @@
         <v>0.1963633333333333</v>
       </c>
       <c r="H4">
-        <v>0.5890899999999999</v>
+        <v>0.58909</v>
       </c>
       <c r="I4">
-        <v>0.4036350381167855</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5037807716844915</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6105999999999999</v>
+        <v>0.7391253333333334</v>
       </c>
       <c r="N4">
-        <v>1.8318</v>
+        <v>2.217376</v>
       </c>
       <c r="O4">
-        <v>0.1142085171447447</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="P4">
-        <v>0.1288206399385756</v>
+        <v>0.2270913233666331</v>
       </c>
       <c r="Q4">
-        <v>0.1198994513333333</v>
+        <v>0.1451371142044445</v>
       </c>
       <c r="R4">
-        <v>1.079095062</v>
+        <v>1.30623402784</v>
       </c>
       <c r="S4">
-        <v>0.04609855917098055</v>
+        <v>0.2112037596847816</v>
       </c>
       <c r="T4">
-        <v>0.06489736139714566</v>
+        <v>0.2270913233666331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,13 +729,13 @@
         <v>0.1963633333333333</v>
       </c>
       <c r="H5">
-        <v>0.5890899999999999</v>
+        <v>0.58909</v>
       </c>
       <c r="I5">
-        <v>0.4036350381167855</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5037807716844915</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.819313</v>
+        <v>0.7345045</v>
       </c>
       <c r="N5">
-        <v>3.638626</v>
+        <v>1.469009</v>
       </c>
       <c r="O5">
-        <v>0.3402899442387109</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="P5">
-        <v>0.2558849928033299</v>
+        <v>0.150447735452848</v>
       </c>
       <c r="Q5">
-        <v>0.3572463650566666</v>
+        <v>0.1442297519683333</v>
       </c>
       <c r="R5">
-        <v>2.14347819034</v>
+        <v>0.86537851181</v>
       </c>
       <c r="S5">
-        <v>0.1373529446135509</v>
+        <v>0.2098833647140458</v>
       </c>
       <c r="T5">
-        <v>0.1289099391369421</v>
+        <v>0.150447735452848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,13 +791,13 @@
         <v>0.1963633333333333</v>
       </c>
       <c r="H6">
-        <v>0.5890899999999999</v>
+        <v>0.58909</v>
       </c>
       <c r="I6">
-        <v>0.4036350381167855</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5037807716844915</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6266583333333333</v>
+        <v>0.9487306666666666</v>
       </c>
       <c r="N6">
-        <v>1.879975</v>
+        <v>2.846192</v>
       </c>
       <c r="O6">
-        <v>0.1172121175997333</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="P6">
-        <v>0.1322085285339687</v>
+        <v>0.2914911624530634</v>
       </c>
       <c r="Q6">
-        <v>0.1230527191944444</v>
+        <v>0.1862959161422222</v>
       </c>
       <c r="R6">
-        <v>1.10747447275</v>
+        <v>1.67666324528</v>
       </c>
       <c r="S6">
-        <v>0.04731091755511747</v>
+        <v>0.2710981137997109</v>
       </c>
       <c r="T6">
-        <v>0.06660411452811385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.290124</v>
-      </c>
-      <c r="H7">
-        <v>0.580248</v>
-      </c>
-      <c r="I7">
-        <v>0.5963649618832145</v>
-      </c>
-      <c r="J7">
-        <v>0.4962192283155085</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.021791</v>
-      </c>
-      <c r="N7">
-        <v>6.065372999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.3781620571349336</v>
-      </c>
-      <c r="P7">
-        <v>0.426545054769166</v>
-      </c>
-      <c r="Q7">
-        <v>0.5865700920839999</v>
-      </c>
-      <c r="R7">
-        <v>3.519420552504</v>
-      </c>
-      <c r="S7">
-        <v>0.2255226007889527</v>
-      </c>
-      <c r="T7">
-        <v>0.2116598579193519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.290124</v>
-      </c>
-      <c r="H8">
-        <v>0.580248</v>
-      </c>
-      <c r="I8">
-        <v>0.5963649618832145</v>
-      </c>
-      <c r="J8">
-        <v>0.4962192283155085</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.267999</v>
-      </c>
-      <c r="N8">
-        <v>0.803997</v>
-      </c>
-      <c r="O8">
-        <v>0.05012736388187754</v>
-      </c>
-      <c r="P8">
-        <v>0.05654078395495961</v>
-      </c>
-      <c r="Q8">
-        <v>0.077752941876</v>
-      </c>
-      <c r="R8">
-        <v>0.466517651256</v>
-      </c>
-      <c r="S8">
-        <v>0.02989420345072193</v>
-      </c>
-      <c r="T8">
-        <v>0.02805662418248394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.290124</v>
-      </c>
-      <c r="H9">
-        <v>0.580248</v>
-      </c>
-      <c r="I9">
-        <v>0.5963649618832145</v>
-      </c>
-      <c r="J9">
-        <v>0.4962192283155085</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.6105999999999999</v>
-      </c>
-      <c r="N9">
-        <v>1.8318</v>
-      </c>
-      <c r="O9">
-        <v>0.1142085171447447</v>
-      </c>
-      <c r="P9">
-        <v>0.1288206399385756</v>
-      </c>
-      <c r="Q9">
-        <v>0.1771497144</v>
-      </c>
-      <c r="R9">
-        <v>1.0628982864</v>
-      </c>
-      <c r="S9">
-        <v>0.0681099579737641</v>
-      </c>
-      <c r="T9">
-        <v>0.06392327854142998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.290124</v>
-      </c>
-      <c r="H10">
-        <v>0.580248</v>
-      </c>
-      <c r="I10">
-        <v>0.5963649618832145</v>
-      </c>
-      <c r="J10">
-        <v>0.4962192283155085</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.819313</v>
-      </c>
-      <c r="N10">
-        <v>3.638626</v>
-      </c>
-      <c r="O10">
-        <v>0.3402899442387109</v>
-      </c>
-      <c r="P10">
-        <v>0.2558849928033299</v>
-      </c>
-      <c r="Q10">
-        <v>0.527826364812</v>
-      </c>
-      <c r="R10">
-        <v>2.111305459248</v>
-      </c>
-      <c r="S10">
-        <v>0.20293699962516</v>
-      </c>
-      <c r="T10">
-        <v>0.1269750536663878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.290124</v>
-      </c>
-      <c r="H11">
-        <v>0.580248</v>
-      </c>
-      <c r="I11">
-        <v>0.5963649618832145</v>
-      </c>
-      <c r="J11">
-        <v>0.4962192283155085</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.6266583333333333</v>
-      </c>
-      <c r="N11">
-        <v>1.879975</v>
-      </c>
-      <c r="O11">
-        <v>0.1172121175997333</v>
-      </c>
-      <c r="P11">
-        <v>0.1322085285339687</v>
-      </c>
-      <c r="Q11">
-        <v>0.1818086223</v>
-      </c>
-      <c r="R11">
-        <v>1.0908517338</v>
-      </c>
-      <c r="S11">
-        <v>0.06990120004461578</v>
-      </c>
-      <c r="T11">
-        <v>0.06560441400585482</v>
+        <v>0.2914911624530634</v>
       </c>
     </row>
   </sheetData>
